--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="54">
   <si>
     <t>Sources:</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>For nonroad modes, we use the same percentages as in the BAU case (see variable BPoEFUbVT),</t>
+  </si>
+  <si>
+    <t>Plug-in Hybrid Vehicle Electricity Use</t>
+  </si>
+  <si>
+    <t>Technically, the maximum share of electricity usable by these vehicles is 100%.</t>
+  </si>
+  <si>
+    <t>However, this variable is used to help govern the way the LCFS policy works, and that</t>
+  </si>
+  <si>
+    <t>That would require drivers to only drive within their cars' electric ranges.</t>
+  </si>
+  <si>
+    <t>policy affects fuel suppliers.  It doesn't affect driving behavior by plug-in hybrid owners.</t>
+  </si>
+  <si>
+    <t>Accordingly, we set the maximum electricity share equal to the BAU electricity share.</t>
   </si>
 </sst>
 </file>
@@ -648,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,26 +855,56 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4646,109 +4694,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -9274,110 +9322,110 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
+      <c r="B2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -13756,9 +13804,7 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13876,110 +13922,110 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
+      <c r="B2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -23883,109 +23929,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -29379,109 +29425,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -33068,109 +33114,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2 - 2020 Modeling\InputData\trans\MPoEFUbVT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="12090"/>
   </bookViews>
@@ -54,15 +59,15 @@
     <sheet name="MPoEFUbVT-mtrbks-frgt-plghyb" sheetId="69" r:id="rId45"/>
   </sheets>
   <definedNames>
-    <definedName name="max_biodsl">'Max Biofuel Blends'!$A$2</definedName>
-    <definedName name="max_biogas">'Max Biofuel Blends'!$A$1</definedName>
+    <definedName name="max_biodsl">'Max Biofuel Blends'!$A$3</definedName>
+    <definedName name="max_biogas">'Max Biofuel Blends'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="61">
   <si>
     <t>Sources:</t>
   </si>
@@ -184,28 +189,7 @@
     <t>in the U.S. dataset.  (For example, there are no natural gas motorbikes in the U.S. model.)</t>
   </si>
   <si>
-    <t>Nonroad Modes</t>
-  </si>
-  <si>
-    <t>since we do not wish to use nonroad modes to comply with the LCFS.  You may wish</t>
-  </si>
-  <si>
-    <t>to change this if adapting the model to a country or region that wishes to apply an</t>
-  </si>
-  <si>
-    <t>LCFS to be met via non-road vehicles.</t>
-  </si>
-  <si>
-    <t>nonroad modes</t>
-  </si>
-  <si>
-    <t>see note below and BPoEFUbVT variable's sources</t>
-  </si>
-  <si>
     <t>combination.</t>
-  </si>
-  <si>
-    <t>For nonroad modes, we use the same percentages as in the BAU case (see variable BPoEFUbVT),</t>
   </si>
   <si>
     <t>Plug-in Hybrid Vehicle Electricity Use</t>
@@ -225,11 +209,53 @@
   <si>
     <t>Accordingly, we set the maximum electricity share equal to the BAU electricity share.</t>
   </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>ships</t>
+  </si>
+  <si>
+    <t>all vehicles except aircraft and ships</t>
+  </si>
+  <si>
+    <t>International Energy Agency</t>
+  </si>
+  <si>
+    <t>Commentary: Are aviation biofuels ready for take off?</t>
+  </si>
+  <si>
+    <t>https://www.iea.org/newsroom/news/2019/march/are-aviation-biofuels-ready-for-take-off.html</t>
+  </si>
+  <si>
+    <t>Aviation fuel consumption in the SFS, 2025-2040</t>
+  </si>
+  <si>
+    <t>https://shipandbunker.com/news/features/industry-insight/637086-industry-insight-sustainable-marine-biofuel-scaling-up-for-a-crucial-role-in-a-low-emission-future-for-shipping</t>
+  </si>
+  <si>
+    <t>Ship&amp;Bunker</t>
+  </si>
+  <si>
+    <t>Taken from text</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>Based on the estimate that biofuels could make up 5-10% of global marine fuel mix by 2030, the fraction achievable in aircraft was also used for ships</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>The fraction achievable in aircraft and ships was also applied to rail.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -270,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +381,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -358,6 +390,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="4"/>
@@ -374,6 +411,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,249 +706,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
+      <c r="D5">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>23</v>
       </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="D12">
+        <v>2016</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>36</v>
       </c>
+      <c r="D13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>37</v>
       </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D7:K7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -923,12 +1015,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -1035,7 +1127,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1819,12 +1911,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -1931,7 +2023,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2041,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2151,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2481,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2715,12 +2807,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -2827,7 +2919,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2937,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3047,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3157,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3267,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3412,7 +3504,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3522,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3646,12 +3738,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -3758,7 +3850,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3868,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3978,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4088,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4198,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4308,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4453,7 +4545,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4577,12 +4669,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -4689,7 +4781,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4799,7 +4891,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4909,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5019,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5129,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5274,7 +5366,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5384,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5508,7 +5600,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5523,12 +5615,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -5635,7 +5727,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5745,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5855,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5965,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6075,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6185,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6295,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6419,12 +6511,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -6531,7 +6623,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6641,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6751,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6861,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6971,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7081,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7191,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7315,12 +7407,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -7427,7 +7519,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7537,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7647,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7757,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7867,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8012,7 +8104,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8122,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8246,12 +8338,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -8358,7 +8450,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8468,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8578,7 +8670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8688,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8798,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8908,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9053,7 +9145,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9170,26 +9262,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0.25</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2030</v>
+      </c>
+      <c r="B6">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>2019</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2021</v>
+      </c>
+      <c r="F9">
+        <v>2022</v>
+      </c>
+      <c r="G9">
+        <v>2023</v>
+      </c>
+      <c r="H9">
+        <v>2024</v>
+      </c>
+      <c r="I9">
+        <v>2025</v>
+      </c>
+      <c r="J9">
+        <v>2026</v>
+      </c>
+      <c r="K9">
+        <v>2027</v>
+      </c>
+      <c r="L9">
+        <v>2028</v>
+      </c>
+      <c r="M9">
+        <v>2029</v>
+      </c>
+      <c r="N9">
+        <v>2030</v>
+      </c>
+      <c r="O9">
+        <v>2031</v>
+      </c>
+      <c r="P9">
+        <v>2032</v>
+      </c>
+      <c r="Q9">
+        <v>2033</v>
+      </c>
+      <c r="R9">
+        <v>2034</v>
+      </c>
+      <c r="S9">
+        <v>2035</v>
+      </c>
+      <c r="T9">
+        <v>2036</v>
+      </c>
+      <c r="U9">
+        <v>2037</v>
+      </c>
+      <c r="V9">
+        <v>2038</v>
+      </c>
+      <c r="W9">
+        <v>2039</v>
+      </c>
+      <c r="X9">
+        <v>2040</v>
+      </c>
+      <c r="Y9">
+        <v>2041</v>
+      </c>
+      <c r="Z9">
+        <v>2042</v>
+      </c>
+      <c r="AA9">
+        <v>2043</v>
+      </c>
+      <c r="AB9">
+        <v>2044</v>
+      </c>
+      <c r="AC9">
+        <v>2045</v>
+      </c>
+      <c r="AD9">
+        <v>2046</v>
+      </c>
+      <c r="AE9">
+        <v>2047</v>
+      </c>
+      <c r="AF9">
+        <v>2048</v>
+      </c>
+      <c r="AG9">
+        <v>2049</v>
+      </c>
+      <c r="AH9">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:X10" si="0">TREND($A$7:$B$7,$A$6:$B$6,D9:AJ9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Y10">
+        <f>X10</f>
+        <v>20</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:AH10" si="1">Y10</f>
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -9206,12 +9570,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -9318,7 +9682,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9428,7 +9792,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9538,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9648,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9758,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9868,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -10013,7 +10377,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -10137,7 +10501,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10152,12 +10516,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -10264,7 +10628,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10374,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10484,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10594,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10704,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10814,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10924,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11048,12 +11412,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -11160,7 +11524,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11270,7 +11634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -11380,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -11490,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11600,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -11710,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -11820,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -11944,12 +12308,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -12056,7 +12420,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -12166,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12276,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12386,7 +12750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12496,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12641,7 +13005,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -12751,7 +13115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -12875,12 +13239,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -12987,7 +13351,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13097,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13207,7 +13571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13317,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13427,7 +13791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13537,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -13682,7 +14046,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -13806,12 +14170,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -13918,7 +14282,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14028,7 +14392,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14138,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14248,7 +14612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14358,7 +14722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14468,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -14613,7 +14977,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -14737,7 +15101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14750,14 +15114,16 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AJ8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -14864,7 +15230,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14974,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15084,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15194,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -15304,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -15414,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -15422,216 +15788,285 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <f>'Max Biofuel Blends'!A10/100</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>'Max Biofuel Blends'!B10/100</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>'Max Biofuel Blends'!C10/100</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>'Max Biofuel Blends'!D10/100</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!E10/100</f>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!F10/100</f>
+        <v>0.02</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!G10/100</f>
+        <v>0.03</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!H10/100</f>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!I10/100</f>
+        <v>0.05</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!J10/100</f>
+        <v>0.06</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!K10/100</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!L10/100</f>
+        <v>0.08</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!M10/100</f>
+        <v>0.09</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!N10/100</f>
+        <v>0.1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!O10/100</f>
+        <v>0.11</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!P10/100</f>
+        <v>0.12</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Q10/100</f>
+        <v>0.13</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!R10/100</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!S10/100</f>
+        <v>0.15</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!T10/100</f>
+        <v>0.16</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!U10/100</f>
+        <v>0.17</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!V10/100</f>
+        <v>0.18</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!W10/100</f>
+        <v>0.19</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!X10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Y10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Z10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AA10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AB10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AC10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AD10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AE10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AF10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AG10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AH10/100</f>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
+        <f>1-B7</f>
         <v>1</v>
       </c>
       <c r="C8">
+        <f t="shared" ref="C8:AJ8" si="0">1-C7</f>
         <v>1</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.99</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.98</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.97</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.96</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.94</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.92999999999999994</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.92</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.91</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.89</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.88</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.87</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.86</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.85</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.84</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.83</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.82000000000000006</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.81</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -15646,14 +16081,16 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AJ8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -15760,7 +16197,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15870,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15980,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -16090,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16200,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16310,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -16318,109 +16755,143 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <f>'Max Biofuel Blends'!A10/100</f>
         <v>0</v>
       </c>
       <c r="D7">
+        <f>'Max Biofuel Blends'!B10/100</f>
         <v>0</v>
       </c>
       <c r="E7">
+        <f>'Max Biofuel Blends'!C10/100</f>
         <v>0</v>
       </c>
       <c r="F7">
+        <f>'Max Biofuel Blends'!D10/100</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!E10/100</f>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!F10/100</f>
+        <v>0.02</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!G10/100</f>
+        <v>0.03</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!H10/100</f>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!I10/100</f>
+        <v>0.05</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!J10/100</f>
+        <v>0.06</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!K10/100</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!L10/100</f>
+        <v>0.08</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!M10/100</f>
+        <v>0.09</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!N10/100</f>
+        <v>0.1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!O10/100</f>
+        <v>0.11</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!P10/100</f>
+        <v>0.12</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Q10/100</f>
+        <v>0.13</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!R10/100</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!S10/100</f>
+        <v>0.15</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!T10/100</f>
+        <v>0.16</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!U10/100</f>
+        <v>0.17</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!V10/100</f>
+        <v>0.18</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!W10/100</f>
+        <v>0.19</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!X10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Y10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Z10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AA10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AB10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AC10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AD10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AE10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AF10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AG10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AH10/100</f>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -16544,7 +17015,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16557,14 +17028,16 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:AJ6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -16671,7 +17144,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16781,7 +17254,7 @@
         <v>0.51376954714774958</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -16891,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17001,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17111,7 +17584,7 @@
         <v>0.48623048430982629</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17119,109 +17592,143 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f>'Max Biofuel Blends'!A10/100</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>'Max Biofuel Blends'!B10/100</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>'Max Biofuel Blends'!C10/100</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>'Max Biofuel Blends'!D10/100</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!E10/100</f>
+        <v>0.01</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!F10/100</f>
+        <v>0.02</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!G10/100</f>
+        <v>0.03</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!H10/100</f>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!I10/100</f>
+        <v>0.05</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!J10/100</f>
+        <v>0.06</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!K10/100</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!L10/100</f>
+        <v>0.08</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!M10/100</f>
+        <v>0.09</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!N10/100</f>
+        <v>0.1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!O10/100</f>
+        <v>0.11</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!P10/100</f>
+        <v>0.12</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Q10/100</f>
+        <v>0.13</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!R10/100</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!S10/100</f>
+        <v>0.15</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!T10/100</f>
+        <v>0.16</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!U10/100</f>
+        <v>0.17</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!V10/100</f>
+        <v>0.18</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!W10/100</f>
+        <v>0.19</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!X10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Y10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Z10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AA10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AB10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AC10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AD10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AE10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AF10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AG10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AH10/100</f>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -17331,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -17453,14 +17960,16 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:AJ6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -17567,7 +18076,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17677,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -17787,7 +18296,7 @@
         <v>0.45458394693616322</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17897,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18007,7 +18516,7 @@
         <v>0.54541606949902732</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18015,109 +18524,143 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <f>'Max Biofuel Blends'!A10/100</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>'Max Biofuel Blends'!B10/100</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>'Max Biofuel Blends'!C10/100</f>
         <v>0</v>
       </c>
       <c r="F6">
+        <f>'Max Biofuel Blends'!D10/100</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!E10/100</f>
+        <v>0.01</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!F10/100</f>
+        <v>0.02</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!G10/100</f>
+        <v>0.03</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!H10/100</f>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!I10/100</f>
+        <v>0.05</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!J10/100</f>
+        <v>0.06</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!K10/100</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!L10/100</f>
+        <v>0.08</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!M10/100</f>
+        <v>0.09</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!N10/100</f>
+        <v>0.1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!O10/100</f>
+        <v>0.11</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!P10/100</f>
+        <v>0.12</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Q10/100</f>
+        <v>0.13</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!R10/100</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!S10/100</f>
+        <v>0.15</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!T10/100</f>
+        <v>0.16</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!U10/100</f>
+        <v>0.17</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!V10/100</f>
+        <v>0.18</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!W10/100</f>
+        <v>0.19</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!X10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Y10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Z10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AA10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AB10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AC10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AD10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AE10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AF10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AG10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AH10/100</f>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -18227,7 +18770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -18349,14 +18892,16 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:AJ7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -18463,7 +19008,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18573,7 +19118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18683,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18793,7 +19338,7 @@
         <v>0.7337049183838984</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18903,7 +19448,7 @@
         <v>0.26629505686994087</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19013,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -19021,109 +19566,143 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
+        <f>'Max Biofuel Blends'!A10/100</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
+        <f>'Max Biofuel Blends'!B10/100</f>
         <v>0</v>
       </c>
       <c r="E7" s="2">
+        <f>'Max Biofuel Blends'!C10/100</f>
         <v>0</v>
       </c>
       <c r="F7" s="2">
+        <f>'Max Biofuel Blends'!D10/100</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!E10/100</f>
+        <v>0.01</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!F10/100</f>
+        <v>0.02</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!G10/100</f>
+        <v>0.03</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!H10/100</f>
+        <v>0.04</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!I10/100</f>
+        <v>0.05</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!J10/100</f>
+        <v>0.06</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!K10/100</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!L10/100</f>
+        <v>0.08</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!M10/100</f>
+        <v>0.09</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!N10/100</f>
+        <v>0.1</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!O10/100</f>
+        <v>0.11</v>
       </c>
       <c r="R7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!P10/100</f>
+        <v>0.12</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Q10/100</f>
+        <v>0.13</v>
       </c>
       <c r="T7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!R10/100</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!S10/100</f>
+        <v>0.15</v>
       </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!T10/100</f>
+        <v>0.16</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!U10/100</f>
+        <v>0.17</v>
       </c>
       <c r="X7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!V10/100</f>
+        <v>0.18</v>
       </c>
       <c r="Y7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!W10/100</f>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!X10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AA7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Y10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AB7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Z10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AC7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AA10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AB10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AE7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AC10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AF7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AD10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AG7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AE10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AH7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AF10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AI7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AG10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AJ7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AH10/100</f>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -19245,14 +19824,16 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:AJ7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -19359,7 +19940,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19469,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19579,7 +20160,7 @@
         <v>1.0247806570535568E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19689,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19799,7 +20380,7 @@
         <v>0.98975217645022384</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19909,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -19917,109 +20498,143 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
+        <f>'Max Biofuel Blends'!A10/100</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
+        <f>'Max Biofuel Blends'!B10/100</f>
         <v>0</v>
       </c>
       <c r="E7" s="2">
+        <f>'Max Biofuel Blends'!C10/100</f>
         <v>0</v>
       </c>
       <c r="F7" s="2">
+        <f>'Max Biofuel Blends'!D10/100</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!E10/100</f>
+        <v>0.01</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!F10/100</f>
+        <v>0.02</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!G10/100</f>
+        <v>0.03</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!H10/100</f>
+        <v>0.04</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!I10/100</f>
+        <v>0.05</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!J10/100</f>
+        <v>0.06</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!K10/100</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!L10/100</f>
+        <v>0.08</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!M10/100</f>
+        <v>0.09</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!N10/100</f>
+        <v>0.1</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!O10/100</f>
+        <v>0.11</v>
       </c>
       <c r="R7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!P10/100</f>
+        <v>0.12</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Q10/100</f>
+        <v>0.13</v>
       </c>
       <c r="T7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!R10/100</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!S10/100</f>
+        <v>0.15</v>
       </c>
       <c r="V7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!T10/100</f>
+        <v>0.16</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!U10/100</f>
+        <v>0.17</v>
       </c>
       <c r="X7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!V10/100</f>
+        <v>0.18</v>
       </c>
       <c r="Y7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!W10/100</f>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!X10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AA7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Y10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AB7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Z10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AC7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AA10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AB10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AE7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AC10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AF7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AD10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AG7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AE10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AH7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AF10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AI7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AG10/100</f>
+        <v>0.2</v>
       </c>
       <c r="AJ7" s="2">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AH10/100</f>
+        <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -20143,7 +20758,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20158,12 +20773,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -20270,7 +20885,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20380,7 +20995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20490,7 +21105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20600,7 +21215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -20710,7 +21325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -20820,7 +21435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -20930,7 +21545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -21054,12 +21669,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -21166,7 +21781,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21276,7 +21891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -21386,7 +22001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -21496,7 +22111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -21606,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -21716,7 +22331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -21826,7 +22441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -21950,12 +22565,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -22062,7 +22677,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -22172,7 +22787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22282,7 +22897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22392,7 +23007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22502,7 +23117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22647,7 +23262,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -22757,7 +23372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -22881,12 +23496,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -22993,7 +23608,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23103,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23213,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23323,7 +23938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23433,7 +24048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23543,7 +24158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -23688,7 +24303,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -23812,12 +24427,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -23924,7 +24539,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24034,7 +24649,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24144,7 +24759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24254,7 +24869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24364,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24509,7 +25124,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -24619,7 +25234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -24743,12 +25358,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -24855,7 +25470,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24965,7 +25580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25075,7 +25690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25185,7 +25800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -25295,7 +25910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -25405,7 +26020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -25515,7 +26130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -25639,7 +26254,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25654,12 +26269,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -25766,7 +26381,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25876,7 +26491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25986,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -26096,7 +26711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26206,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26316,7 +26931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -26426,7 +27041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -26550,12 +27165,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -26662,7 +27277,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26772,7 +27387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -26882,7 +27497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -26992,7 +27607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27102,7 +27717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27212,7 +27827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -27322,7 +27937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -27446,12 +28061,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -27558,7 +28173,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -27668,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -27778,7 +28393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -27888,7 +28503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27998,7 +28613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28143,7 +28758,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -28253,7 +28868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -28377,12 +28992,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -28489,7 +29104,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28599,7 +29214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28709,7 +29324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28819,7 +29434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28929,7 +29544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29039,7 +29654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -29184,7 +29799,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -29308,12 +29923,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -29420,7 +30035,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29530,7 +30145,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29640,7 +30255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29750,7 +30365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29860,7 +30475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -30005,7 +30620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -30115,7 +30730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -30239,12 +30854,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -30351,7 +30966,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30461,7 +31076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30571,7 +31186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30681,7 +31296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30791,7 +31406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -30901,7 +31516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -31011,7 +31626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -31135,12 +31750,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -31247,7 +31862,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31357,7 +31972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31467,7 +32082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -31577,7 +32192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -31687,7 +32302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31832,7 +32447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -31942,7 +32557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -32066,12 +32681,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -32178,7 +32793,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -32288,7 +32903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -32398,7 +33013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32508,7 +33123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32618,7 +33233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32728,7 +33343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -32873,7 +33488,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -32997,12 +33612,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -33109,7 +33724,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -33219,7 +33834,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -33329,7 +33944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33439,7 +34054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33549,7 +34164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33694,7 +34309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -33804,7 +34419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -33931,7 +34546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-eps\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B079F7A-D89C-46AE-9EB4-3C609D4FF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35587AEF-2951-48D6-9B27-58F0C542E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="82" activeTab="85" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15450" yWindow="1035" windowWidth="13140" windowHeight="16215" firstSheet="43" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -275,15 +275,6 @@
     <t>International Energy Agency</t>
   </si>
   <si>
-    <t>Commentary: Are aviation biofuels ready for take off?</t>
-  </si>
-  <si>
-    <t>https://www.iea.org/newsroom/news/2019/march/are-aviation-biofuels-ready-for-take-off.html</t>
-  </si>
-  <si>
-    <t>Aviation fuel consumption in the SFS, 2025-2040</t>
-  </si>
-  <si>
     <t>https://shipandbunker.com/news/features/industry-insight/637086-industry-insight-sustainable-marine-biofuel-scaling-up-for-a-crucial-role-in-a-low-emission-future-for-shipping</t>
   </si>
   <si>
@@ -349,6 +340,15 @@
   <si>
     <t>Percentage Fuel Use (dimensionless)</t>
   </si>
+  <si>
+    <t>https://iea.blob.core.windows.net/assets/20959e2e-7ab8-4f2a-b1c6-4e63387f03a1/NetZeroby2050-ARoadmapfortheGlobalEnergySector_CORR.pdf</t>
+  </si>
+  <si>
+    <t>Net Zero by 2050 A Roadmap for the Global Energy Sector</t>
+  </si>
+  <si>
+    <t>Aviation fuel consumption in the SFS (pg 136)</t>
+  </si>
 </sst>
 </file>
 
@@ -399,7 +399,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,12 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +494,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -849,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +962,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1023,7 +1019,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,33 +1028,33 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>2019</v>
+      <c r="B18" s="10">
+        <v>44317</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1068,17 +1064,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1089,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -1241,41 +1237,40 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1295,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -2175,7 +2170,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2285,7 +2280,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2395,7 +2390,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2539,7 +2534,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -3419,7 +3414,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3529,7 +3524,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3639,7 +3634,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3768,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -4648,7 +4643,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4758,7 +4753,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4868,7 +4863,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4999,7 +4994,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -5552,108 +5547,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -5879,7 +5909,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5989,7 +6019,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6099,7 +6129,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6230,7 +6260,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -6893,108 +6923,143 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="C7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="D7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="E7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="F7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="G7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="H7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="I7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="J7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="K7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="L7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="M7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="N7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="O7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="P7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Q7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="R7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="S7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="T7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="U7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="V7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="W7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="X7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Y7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Z7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AA7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AB7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AC7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AD7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AE7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AF7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AG7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AH7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AI7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AJ7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
     </row>
@@ -7110,7 +7175,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7220,7 +7285,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7330,7 +7395,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7461,7 +7526,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -8014,108 +8079,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -8341,7 +8441,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8451,7 +8551,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8561,7 +8661,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8690,7 +8790,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -9570,7 +9670,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9680,7 +9780,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -9790,7 +9890,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9919,7 +10019,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -10799,7 +10899,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10909,7 +11009,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11019,7 +11119,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -11164,7 +11264,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -11172,7 +11272,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -11188,20 +11288,20 @@
         <v>2030</v>
       </c>
       <c r="B6">
-        <v>2040</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -11327,135 +11427,134 @@
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11">
-        <f>_xlfn.FORECAST.LINEAR(F10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>9.9999999999980105E-3</v>
+      <c r="F11" s="7">
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" ref="G11:AI11" si="0">_xlfn.FORECAST.LINEAR(G10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R11">
         <f t="shared" si="0"/>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W11">
         <f t="shared" si="0"/>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X11">
         <f t="shared" si="0"/>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="Z11" s="10">
-        <f>Y11</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AA11" s="10">
-        <f t="shared" ref="AA11:AI11" si="1">Z11</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AB11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AC11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AD11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AE11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AF11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AG11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AH11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="AI11" s="10">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>0.31500000000000128</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>0.33000000000000185</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>0.34500000000000242</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="0"/>
+        <v>0.36000000000000298</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000057</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000114</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>0.43500000000000227</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -11480,7 +11579,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -12360,7 +12459,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12470,7 +12569,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12580,7 +12679,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12709,7 +12808,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -13589,7 +13688,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -13699,7 +13798,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -13809,7 +13908,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -13929,8 +14028,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13940,7 +14039,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -14493,108 +14592,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -14820,7 +14954,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -14930,7 +15064,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -15040,7 +15174,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -15171,7 +15305,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -15834,108 +15968,143 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="C7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="D7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="E7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="F7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="G7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="H7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="I7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="J7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="K7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="L7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="M7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="N7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="O7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="P7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Q7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="R7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="S7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="T7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="U7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="V7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="W7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="X7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Y7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Z7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AA7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AB7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AC7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AD7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AE7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AF7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AG7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AH7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AI7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AJ7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
     </row>
@@ -16051,7 +16220,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -16161,7 +16330,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -16271,7 +16440,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -16391,7 +16560,9 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16400,7 +16571,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -17064,143 +17235,143 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:AJ7" si="0">max_biodsl</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AI7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
@@ -17315,7 +17486,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -17425,7 +17596,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -17535,7 +17706,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -17664,7 +17835,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -18544,7 +18715,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -18654,7 +18825,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -18764,7 +18935,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -18893,7 +19064,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -19773,7 +19944,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -19883,7 +20054,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -19993,7 +20164,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -20137,7 +20308,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -21017,7 +21188,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -21127,7 +21298,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -21237,7 +21408,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -21366,7 +21537,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -22246,7 +22417,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22356,7 +22527,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22466,7 +22637,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -22612,7 +22783,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -23165,108 +23336,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -23492,7 +23698,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -23602,7 +23808,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -23712,7 +23918,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -23843,7 +24049,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -24506,108 +24712,143 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="C7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="D7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="E7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="F7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="G7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="H7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="I7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="J7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="K7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="L7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="M7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="N7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="O7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="P7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Q7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="R7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="S7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="T7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="U7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="V7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="W7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="X7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Y7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Z7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AA7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AB7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AC7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AD7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AE7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AF7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AG7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AH7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AI7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AJ7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
     </row>
@@ -24723,7 +24964,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -24833,7 +25074,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -24943,7 +25184,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -25074,7 +25315,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -25734,111 +25975,146 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="C7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="D7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="E7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="F7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="G7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="H7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="I7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="J7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="K7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="L7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="M7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="N7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="O7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="P7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Q7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="R7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="S7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="T7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="U7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="V7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="W7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="X7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Y7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Z7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AA7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AB7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AC7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AD7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AE7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AF7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AG7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AH7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AI7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AJ7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
     </row>
@@ -25954,7 +26230,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -26064,7 +26340,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -26174,7 +26450,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -26303,7 +26579,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -27183,7 +27459,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -27293,7 +27569,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -27403,7 +27679,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -27532,7 +27808,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -28412,7 +28688,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -28522,7 +28798,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -28632,7 +28908,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -28776,7 +29052,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -29632,7 +29908,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -29739,7 +30015,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -29846,7 +30122,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -29972,7 +30248,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -30828,7 +31104,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -30935,7 +31211,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -31042,7 +31318,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -31160,7 +31436,7 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31170,7 +31446,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -31725,123 +32001,123 @@
       </c>
       <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -32060,7 +32336,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -32167,7 +32443,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -32274,7 +32550,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -32391,7 +32667,9 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32400,7 +32678,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -33062,123 +33340,123 @@
       </c>
       <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -33290,7 +33568,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -33397,7 +33675,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -33504,7 +33782,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -33630,7 +33908,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -34510,7 +34788,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -34620,7 +34898,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -34730,7 +35008,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -34859,7 +35137,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -35715,7 +35993,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -35822,7 +36100,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -35929,7 +36207,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -36070,7 +36348,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -36926,7 +37204,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -37033,7 +37311,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -37140,7 +37418,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -37266,7 +37544,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -38122,7 +38400,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -38229,7 +38507,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -38336,7 +38614,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -38453,7 +38731,7 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38462,7 +38740,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -39017,123 +39295,123 @@
       </c>
       <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -39352,7 +39630,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -39459,7 +39737,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -39566,7 +39844,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -39692,7 +39970,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -40354,123 +40632,123 @@
       </c>
       <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -40582,7 +40860,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -40689,7 +40967,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -40796,7 +41074,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -40922,7 +41200,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -41778,7 +42056,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -41885,7 +42163,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -41992,7 +42270,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -42133,7 +42411,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -42989,7 +43267,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -43096,7 +43374,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -43203,7 +43481,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -43329,7 +43607,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -44185,7 +44463,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -44292,7 +44570,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -44399,7 +44677,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -44525,7 +44803,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -45405,7 +45683,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -45515,7 +45793,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -45625,7 +45903,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -45754,7 +46032,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -46309,123 +46587,123 @@
       </c>
       <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -46644,7 +46922,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -46751,7 +47029,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -46858,7 +47136,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -46984,7 +47262,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -47646,123 +47924,123 @@
       </c>
       <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -47874,7 +48152,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -47981,7 +48259,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -48088,7 +48366,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -48214,7 +48492,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -49070,7 +49348,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -49177,7 +49455,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -49284,7 +49562,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -49425,7 +49703,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -50281,7 +50559,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -50388,7 +50666,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -50495,7 +50773,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -50621,7 +50899,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -51477,7 +51755,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -51584,7 +51862,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -51691,7 +51969,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -51817,7 +52095,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -52372,123 +52650,123 @@
       </c>
       <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -52707,7 +52985,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -52814,7 +53092,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -52921,7 +53199,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -53047,7 +53325,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -53709,123 +53987,123 @@
       </c>
       <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -53937,7 +54215,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -54044,7 +54322,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -54151,7 +54429,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -54277,7 +54555,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -55133,7 +55411,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -55240,7 +55518,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -55347,7 +55625,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -55479,8 +55757,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55490,7 +55768,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -56043,108 +56321,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -56370,7 +56683,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -56480,7 +56793,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -56590,7 +56903,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -56719,7 +57032,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -57575,7 +57888,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -57682,7 +57995,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -57789,7 +58102,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -57915,7 +58228,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -58771,7 +59084,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -58878,7 +59191,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -58985,7 +59298,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -59111,7 +59424,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -59666,123 +59979,123 @@
       </c>
       <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -60001,7 +60314,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -60108,7 +60421,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -60215,7 +60528,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -60341,7 +60654,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -61003,123 +61316,123 @@
       </c>
       <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -61231,7 +61544,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -61338,7 +61651,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -61445,7 +61758,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -61571,7 +61884,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -62427,7 +62740,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -62534,7 +62847,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -62641,7 +62954,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -62782,7 +63095,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -63638,7 +63951,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -63745,7 +64058,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -63852,7 +64165,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -63978,7 +64291,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -64834,7 +65147,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -64941,7 +65254,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -65048,7 +65361,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -65174,7 +65487,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -65729,123 +66042,123 @@
       </c>
       <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -66064,7 +66377,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -66171,7 +66484,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -66278,7 +66591,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -66404,7 +66717,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -67066,123 +67379,123 @@
       </c>
       <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>9.9999999999980105E-3</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>1.9999999999996021E-2</v>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>2.9999999999997584E-2</v>
+        <v>4.5000000000001705E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>3.9999999999999147E-2</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>4.9999999999997158E-2</v>
+        <v>7.5000000000002842E-2</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>5.9999999999998721E-2</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>6.9999999999996732E-2</v>
+        <v>0.10500000000000043</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>7.9999999999998295E-2</v>
+        <v>0.12000000000000099</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>8.9999999999996305E-2</v>
+        <v>0.13500000000000156</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>9.9999999999997868E-2</v>
+        <v>0.15000000000000213</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.10999999999999588</v>
+        <v>0.1650000000000027</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>0.11999999999999744</v>
+        <v>0.18000000000000327</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.12999999999999901</v>
+        <v>0.19500000000000028</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>0.13999999999999702</v>
+        <v>0.21000000000000085</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>0.14999999999999858</v>
+        <v>0.22500000000000142</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.15999999999999659</v>
+        <v>0.24000000000000199</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.16999999999999815</v>
+        <v>0.25500000000000256</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.17999999999999616</v>
+        <v>0.27000000000000313</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.18999999999999773</v>
+        <v>0.28500000000000014</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.31500000000000128</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.33000000000000185</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.34500000000000242</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.36000000000000298</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.375</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.39000000000000057</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.40500000000000114</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.42000000000000171</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.43500000000000227</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>0.19999999999999929</v>
+        <v>0.45000000000000284</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -67294,7 +67607,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0.64251101185250481</v>
@@ -67401,7 +67714,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -67508,7 +67821,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -67636,7 +67949,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -68516,7 +68829,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -68626,7 +68939,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -68736,7 +69049,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -68865,7 +69178,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -69721,7 +70034,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -69828,7 +70141,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -69935,7 +70248,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -70076,7 +70389,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -70956,7 +71269,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -71066,7 +71379,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -71176,7 +71489,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -71305,7 +71618,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -72185,7 +72498,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -72295,7 +72608,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -72405,7 +72718,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -72536,7 +72849,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -73416,7 +73729,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -73526,7 +73839,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -73636,7 +73949,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -73767,7 +74080,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -74647,7 +74960,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -74757,7 +75070,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -74867,7 +75180,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -74998,7 +75311,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -75878,7 +76191,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -75988,7 +76301,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -76098,7 +76411,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -76227,7 +76540,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -77107,7 +77420,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -77217,7 +77530,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -77327,7 +77640,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -77456,7 +77769,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -78336,7 +78649,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -78446,7 +78759,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -78556,7 +78869,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -78702,7 +79015,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -79255,108 +79568,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -79582,7 +79930,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -79692,7 +80040,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -79802,7 +80150,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -79934,7 +80282,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -80814,7 +81162,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -80924,7 +81272,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -81034,7 +81382,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -81163,7 +81511,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -82043,7 +82391,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -82153,7 +82501,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -82263,7 +82611,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -82383,8 +82731,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82394,7 +82742,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -82947,108 +83295,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -83274,7 +83657,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -83384,7 +83767,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -83494,7 +83877,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -83625,7 +84008,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -84288,108 +84671,143 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="C7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="D7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="E7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="F7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="G7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="H7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="I7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="J7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="K7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="L7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="M7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="N7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="O7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="P7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Q7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="R7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="S7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="T7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="U7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="V7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="W7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="X7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Y7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="Z7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AA7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AB7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AC7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AD7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AE7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AF7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AG7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AH7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AI7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
       <c r="AJ7">
+        <f>max_biodsl</f>
         <v>1</v>
       </c>
     </row>
@@ -84505,7 +84923,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -84615,7 +85033,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -84725,7 +85143,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -84856,7 +85274,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -85409,108 +85827,143 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="C6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="D6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="E6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="F6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="H6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="I6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="J6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="K6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="M6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="N6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="O6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="P6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Q6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="R6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="S6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="T6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="U6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="V6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="W6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="X6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Y6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="Z6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AA6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AB6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AC6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AD6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AE6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AF6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AG6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AH6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AI6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
       <c r="AJ6" s="4">
+        <f>max_biogas</f>
         <v>0.15</v>
       </c>
     </row>
@@ -85736,7 +86189,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -85846,7 +86299,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -85956,7 +86409,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -86085,7 +86538,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -86965,7 +87418,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -87075,7 +87528,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -87185,7 +87638,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -87305,7 +87758,7 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -87314,7 +87767,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -88194,7 +88647,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -88304,7 +88757,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -88414,7 +88867,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -88543,7 +88996,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -89423,7 +89876,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -89533,7 +89986,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -89643,7 +90096,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>0</v>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5501FA98-63E6-4C77-9651-A018F76A1A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A391BD-3286-4E97-ABE3-8FDFEB199DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,8 +119,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="79">
   <si>
     <t>Sources:</t>
   </si>
@@ -299,9 +321,6 @@
     <t>Interpolate and extrapolate:</t>
   </si>
   <si>
-    <t>ships, rail</t>
-  </si>
-  <si>
     <t>assumed to be the same as aircraft</t>
   </si>
   <si>
@@ -355,11 +374,20 @@
   <si>
     <t>entail retrofits for engines to use drop-in biofuels (which have been demonstrated).</t>
   </si>
+  <si>
+    <t>rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +513,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -503,6 +531,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1040,17 +1069,17 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1095,7 +1124,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
@@ -1243,42 +1272,42 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1335,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -2186,7 +2215,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2296,7 +2325,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2406,7 +2435,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2550,7 +2579,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -3430,7 +3459,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3540,7 +3569,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3650,7 +3679,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3779,7 +3808,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -4659,7 +4688,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4769,7 +4798,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4879,7 +4908,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5010,7 +5039,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -5925,7 +5954,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6035,7 +6064,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6145,7 +6174,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6276,7 +6305,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -7191,7 +7220,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7301,7 +7330,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7411,7 +7440,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7542,7 +7571,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -8457,7 +8486,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -8567,7 +8596,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -8677,7 +8706,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -8806,7 +8835,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -9686,7 +9715,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9796,7 +9825,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -9906,7 +9935,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10035,7 +10064,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -10915,7 +10944,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11025,7 +11054,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11135,7 +11164,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -11265,13 +11294,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -11315,263 +11347,535 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <v>2050</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>2017</v>
-      </c>
-      <c r="C10">
-        <v>2018</v>
-      </c>
-      <c r="D10">
-        <v>2019</v>
-      </c>
-      <c r="E10">
-        <v>2020</v>
-      </c>
-      <c r="F10">
-        <v>2021</v>
-      </c>
-      <c r="G10">
-        <v>2022</v>
-      </c>
-      <c r="H10">
-        <v>2023</v>
-      </c>
-      <c r="I10">
-        <v>2024</v>
-      </c>
-      <c r="J10">
-        <v>2025</v>
-      </c>
-      <c r="K10">
-        <v>2026</v>
-      </c>
-      <c r="L10">
-        <v>2027</v>
-      </c>
-      <c r="M10">
-        <v>2028</v>
-      </c>
-      <c r="N10">
-        <v>2029</v>
-      </c>
-      <c r="O10">
-        <v>2030</v>
-      </c>
-      <c r="P10">
-        <v>2031</v>
-      </c>
-      <c r="Q10">
-        <v>2032</v>
-      </c>
-      <c r="R10">
-        <v>2033</v>
-      </c>
-      <c r="S10">
-        <v>2034</v>
-      </c>
-      <c r="T10">
-        <v>2035</v>
-      </c>
-      <c r="U10">
-        <v>2036</v>
-      </c>
-      <c r="V10">
-        <v>2037</v>
-      </c>
-      <c r="W10">
-        <v>2038</v>
-      </c>
-      <c r="X10">
-        <v>2039</v>
-      </c>
-      <c r="Y10">
-        <v>2040</v>
-      </c>
-      <c r="Z10">
-        <v>2041</v>
-      </c>
-      <c r="AA10">
-        <v>2042</v>
-      </c>
-      <c r="AB10">
-        <v>2043</v>
-      </c>
-      <c r="AC10">
-        <v>2044</v>
-      </c>
-      <c r="AD10">
-        <v>2045</v>
-      </c>
-      <c r="AE10">
-        <v>2046</v>
-      </c>
-      <c r="AF10">
-        <v>2047</v>
-      </c>
-      <c r="AG10">
-        <v>2048</v>
-      </c>
-      <c r="AH10">
-        <v>2049</v>
-      </c>
-      <c r="AI10">
-        <v>2050</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f>_xlfn.FORECAST.LINEAR(G10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>3.4482758620683285E-2</v>
-      </c>
-      <c r="H11">
-        <f>_xlfn.FORECAST.LINEAR(H10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>6.896551724138078E-2</v>
-      </c>
-      <c r="I11">
-        <f>_xlfn.FORECAST.LINEAR(I10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.10344827586206407</v>
-      </c>
-      <c r="J11">
-        <f>_xlfn.FORECAST.LINEAR(J10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.13793103448276156</v>
-      </c>
-      <c r="K11">
-        <f>_xlfn.FORECAST.LINEAR(K10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.17241379310344485</v>
-      </c>
-      <c r="L11">
-        <f>_xlfn.FORECAST.LINEAR(L10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.20689655172414234</v>
-      </c>
-      <c r="M11">
-        <f>_xlfn.FORECAST.LINEAR(M10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.24137931034482563</v>
-      </c>
-      <c r="N11">
-        <f>_xlfn.FORECAST.LINEAR(N10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.27586206896550891</v>
-      </c>
-      <c r="O11">
-        <f>_xlfn.FORECAST.LINEAR(O10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.31034482758620641</v>
-      </c>
-      <c r="P11">
-        <f>_xlfn.FORECAST.LINEAR(P10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.34482758620688969</v>
-      </c>
-      <c r="Q11">
-        <f>_xlfn.FORECAST.LINEAR(Q10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.37931034482758719</v>
-      </c>
-      <c r="R11">
-        <f>_xlfn.FORECAST.LINEAR(R10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.41379310344827047</v>
-      </c>
-      <c r="S11">
-        <f>_xlfn.FORECAST.LINEAR(S10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.44827586206896797</v>
-      </c>
-      <c r="T11">
-        <f>_xlfn.FORECAST.LINEAR(T10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.48275862068965125</v>
-      </c>
-      <c r="U11">
-        <f>_xlfn.FORECAST.LINEAR(U10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.51724137931034875</v>
-      </c>
-      <c r="V11">
-        <f>_xlfn.FORECAST.LINEAR(V10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.55172413793103203</v>
-      </c>
-      <c r="W11">
-        <f>_xlfn.FORECAST.LINEAR(W10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.58620689655172953</v>
-      </c>
-      <c r="X11">
-        <f>_xlfn.FORECAST.LINEAR(X10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.62068965517241281</v>
-      </c>
-      <c r="Y11">
-        <f>_xlfn.FORECAST.LINEAR(Y10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.6551724137930961</v>
-      </c>
-      <c r="Z11">
-        <f>_xlfn.FORECAST.LINEAR(Z10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.68965517241379359</v>
-      </c>
-      <c r="AA11">
-        <f>_xlfn.FORECAST.LINEAR(AA10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.72413793103447688</v>
-      </c>
-      <c r="AB11">
-        <f>_xlfn.FORECAST.LINEAR(AB10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.75862068965517437</v>
-      </c>
-      <c r="AC11">
-        <f>_xlfn.FORECAST.LINEAR(AC10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.79310344827585766</v>
-      </c>
-      <c r="AD11">
-        <f>_xlfn.FORECAST.LINEAR(AD10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.82758620689655515</v>
-      </c>
-      <c r="AE11">
-        <f>_xlfn.FORECAST.LINEAR(AE10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.86206896551723844</v>
-      </c>
-      <c r="AF11">
-        <f>_xlfn.FORECAST.LINEAR(AF10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.89655172413793593</v>
-      </c>
-      <c r="AG11">
-        <f>_xlfn.FORECAST.LINEAR(AG10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.93103448275861922</v>
-      </c>
-      <c r="AH11">
-        <f>_xlfn.FORECAST.LINEAR(AH10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>0.9655172413793025</v>
-      </c>
-      <c r="AI11">
-        <f>_xlfn.FORECAST.LINEAR(AI10,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>1</v>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13">
+        <v>2020</v>
+      </c>
+      <c r="F13">
+        <v>2021</v>
+      </c>
+      <c r="G13">
+        <v>2022</v>
+      </c>
+      <c r="H13">
+        <v>2023</v>
+      </c>
+      <c r="I13">
+        <v>2024</v>
+      </c>
+      <c r="J13">
+        <v>2025</v>
+      </c>
+      <c r="K13">
+        <v>2026</v>
+      </c>
+      <c r="L13">
+        <v>2027</v>
+      </c>
+      <c r="M13">
+        <v>2028</v>
+      </c>
+      <c r="N13">
+        <v>2029</v>
+      </c>
+      <c r="O13">
+        <v>2030</v>
+      </c>
+      <c r="P13">
+        <v>2031</v>
+      </c>
+      <c r="Q13">
+        <v>2032</v>
+      </c>
+      <c r="R13">
+        <v>2033</v>
+      </c>
+      <c r="S13">
+        <v>2034</v>
+      </c>
+      <c r="T13">
+        <v>2035</v>
+      </c>
+      <c r="U13">
+        <v>2036</v>
+      </c>
+      <c r="V13">
+        <v>2037</v>
+      </c>
+      <c r="W13">
+        <v>2038</v>
+      </c>
+      <c r="X13">
+        <v>2039</v>
+      </c>
+      <c r="Y13">
+        <v>2040</v>
+      </c>
+      <c r="Z13">
+        <v>2041</v>
+      </c>
+      <c r="AA13">
+        <v>2042</v>
+      </c>
+      <c r="AB13">
+        <v>2043</v>
+      </c>
+      <c r="AC13">
+        <v>2044</v>
+      </c>
+      <c r="AD13">
+        <v>2045</v>
+      </c>
+      <c r="AE13">
+        <v>2046</v>
+      </c>
+      <c r="AF13">
+        <v>2047</v>
+      </c>
+      <c r="AG13">
+        <v>2048</v>
+      </c>
+      <c r="AH13">
+        <v>2049</v>
+      </c>
+      <c r="AI13">
+        <v>2050</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.FORECAST.LINEAR(G13,$A$7:$B$7,$A$6:$B$6)</f>
+        <v>3.4482758620683285E-2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="G14:AI14" si="0">_xlfn.FORECAST.LINEAR(H13,$A$7:$B$7,$A$6:$B$6)</f>
+        <v>6.896551724138078E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.10344827586206407</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.13793103448276156</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.17241379310344485</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.20689655172414234</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.24137931034482563</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.27586206896550891</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.31034482758620641</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.34482758620688969</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.37931034482758719</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>0.41379310344827047</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0.44827586206896797</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0.48275862068965125</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.51724137931034875</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.55172413793103203</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>0.58620689655172953</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>0.62068965517241281</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0.6551724137930961</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>0.68965517241379359</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>0.72413793103447688</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>0.75862068965517437</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="0"/>
+        <v>0.79310344827585766</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>0.82758620689655515</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="0"/>
+        <v>0.86206896551723844</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="0"/>
+        <v>0.89655172413793593</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="0"/>
+        <v>0.93103448275861922</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="0"/>
+        <v>0.9655172413793025</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16">
+        <v>2019</v>
+      </c>
+      <c r="E16">
+        <v>2020</v>
+      </c>
+      <c r="F16">
+        <v>2021</v>
+      </c>
+      <c r="G16">
+        <v>2022</v>
+      </c>
+      <c r="H16">
+        <v>2023</v>
+      </c>
+      <c r="I16">
+        <v>2024</v>
+      </c>
+      <c r="J16">
+        <v>2025</v>
+      </c>
+      <c r="K16">
+        <v>2026</v>
+      </c>
+      <c r="L16">
+        <v>2027</v>
+      </c>
+      <c r="M16">
+        <v>2028</v>
+      </c>
+      <c r="N16">
+        <v>2029</v>
+      </c>
+      <c r="O16">
+        <v>2030</v>
+      </c>
+      <c r="P16">
+        <v>2031</v>
+      </c>
+      <c r="Q16">
+        <v>2032</v>
+      </c>
+      <c r="R16">
+        <v>2033</v>
+      </c>
+      <c r="S16">
+        <v>2034</v>
+      </c>
+      <c r="T16">
+        <v>2035</v>
+      </c>
+      <c r="U16">
+        <v>2036</v>
+      </c>
+      <c r="V16">
+        <v>2037</v>
+      </c>
+      <c r="W16">
+        <v>2038</v>
+      </c>
+      <c r="X16">
+        <v>2039</v>
+      </c>
+      <c r="Y16">
+        <v>2040</v>
+      </c>
+      <c r="Z16">
+        <v>2041</v>
+      </c>
+      <c r="AA16">
+        <v>2042</v>
+      </c>
+      <c r="AB16">
+        <v>2043</v>
+      </c>
+      <c r="AC16">
+        <v>2044</v>
+      </c>
+      <c r="AD16">
+        <v>2045</v>
+      </c>
+      <c r="AE16">
+        <v>2046</v>
+      </c>
+      <c r="AF16">
+        <v>2047</v>
+      </c>
+      <c r="AG16">
+        <v>2048</v>
+      </c>
+      <c r="AH16">
+        <v>2049</v>
+      </c>
+      <c r="AI16">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">TREND($A$10:$B$10,$A$9:$B$9,G16)</f>
+        <v>1.7241379310341642E-2</v>
+      </c>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">TREND($A$10:$B$10,$A$9:$B$9,H16)</f>
+        <v>3.448275862069039E-2</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">TREND($A$10:$B$10,$A$9:$B$9,I16)</f>
+        <v>5.1724137931032033E-2</v>
+      </c>
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">TREND($A$10:$B$10,$A$9:$B$9,J16)</f>
+        <v>6.896551724138078E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">TREND($A$10:$B$10,$A$9:$B$9,K16)</f>
+        <v>8.6206896551722423E-2</v>
+      </c>
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">TREND($A$10:$B$10,$A$9:$B$9,L16)</f>
+        <v>0.10344827586207117</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">TREND($A$10:$B$10,$A$9:$B$9,M16)</f>
+        <v>0.12068965517241281</v>
+      </c>
+      <c r="N17" cm="1">
+        <f t="array" ref="N17">TREND($A$10:$B$10,$A$9:$B$9,N16)</f>
+        <v>0.13793103448275446</v>
+      </c>
+      <c r="O17" cm="1">
+        <f t="array" ref="O17">TREND($A$10:$B$10,$A$9:$B$9,O16)</f>
+        <v>0.1551724137931032</v>
+      </c>
+      <c r="P17" cm="1">
+        <f t="array" ref="P17">TREND($A$10:$B$10,$A$9:$B$9,P16)</f>
+        <v>0.17241379310344485</v>
+      </c>
+      <c r="Q17" cm="1">
+        <f t="array" ref="Q17">TREND($A$10:$B$10,$A$9:$B$9,Q16)</f>
+        <v>0.18965517241379359</v>
+      </c>
+      <c r="R17" cm="1">
+        <f t="array" ref="R17">TREND($A$10:$B$10,$A$9:$B$9,R16)</f>
+        <v>0.20689655172413524</v>
+      </c>
+      <c r="S17" cm="1">
+        <f t="array" ref="S17">TREND($A$10:$B$10,$A$9:$B$9,S16)</f>
+        <v>0.22413793103448398</v>
+      </c>
+      <c r="T17" cm="1">
+        <f t="array" ref="T17">TREND($A$10:$B$10,$A$9:$B$9,T16)</f>
+        <v>0.24137931034482563</v>
+      </c>
+      <c r="U17" cm="1">
+        <f t="array" ref="U17">TREND($A$10:$B$10,$A$9:$B$9,U16)</f>
+        <v>0.25862068965517437</v>
+      </c>
+      <c r="V17" cm="1">
+        <f t="array" ref="V17">TREND($A$10:$B$10,$A$9:$B$9,V16)</f>
+        <v>0.27586206896551602</v>
+      </c>
+      <c r="W17" cm="1">
+        <f t="array" ref="W17">TREND($A$10:$B$10,$A$9:$B$9,W16)</f>
+        <v>0.29310344827586476</v>
+      </c>
+      <c r="X17" cm="1">
+        <f t="array" ref="X17">TREND($A$10:$B$10,$A$9:$B$9,X16)</f>
+        <v>0.31034482758620641</v>
+      </c>
+      <c r="Y17" cm="1">
+        <f t="array" ref="Y17">TREND($A$10:$B$10,$A$9:$B$9,Y16)</f>
+        <v>0.32758620689654805</v>
+      </c>
+      <c r="Z17" cm="1">
+        <f t="array" ref="Z17">TREND($A$10:$B$10,$A$9:$B$9,Z16)</f>
+        <v>0.3448275862068968</v>
+      </c>
+      <c r="AA17" cm="1">
+        <f t="array" ref="AA17">TREND($A$10:$B$10,$A$9:$B$9,AA16)</f>
+        <v>0.36206896551723844</v>
+      </c>
+      <c r="AB17" cm="1">
+        <f t="array" ref="AB17">TREND($A$10:$B$10,$A$9:$B$9,AB16)</f>
+        <v>0.37931034482758719</v>
+      </c>
+      <c r="AC17" cm="1">
+        <f t="array" ref="AC17">TREND($A$10:$B$10,$A$9:$B$9,AC16)</f>
+        <v>0.39655172413792883</v>
+      </c>
+      <c r="AD17" cm="1">
+        <f t="array" ref="AD17">TREND($A$10:$B$10,$A$9:$B$9,AD16)</f>
+        <v>0.41379310344827758</v>
+      </c>
+      <c r="AE17" cm="1">
+        <f t="array" ref="AE17">TREND($A$10:$B$10,$A$9:$B$9,AE16)</f>
+        <v>0.43103448275861922</v>
+      </c>
+      <c r="AF17" cm="1">
+        <f t="array" ref="AF17">TREND($A$10:$B$10,$A$9:$B$9,AF16)</f>
+        <v>0.44827586206896797</v>
+      </c>
+      <c r="AG17" cm="1">
+        <f t="array" ref="AG17">TREND($A$10:$B$10,$A$9:$B$9,AG16)</f>
+        <v>0.46551724137930961</v>
+      </c>
+      <c r="AH17" cm="1">
+        <f t="array" ref="AH17">TREND($A$10:$B$10,$A$9:$B$9,AH16)</f>
+        <v>0.48275862068965125</v>
+      </c>
+      <c r="AI17" cm="1">
+        <f t="array" ref="AI17">TREND($A$10:$B$10,$A$9:$B$9,AI16)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11595,7 +11899,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -12475,7 +12779,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12585,7 +12889,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12695,7 +12999,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12824,7 +13128,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -13704,7 +14008,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -13814,7 +14118,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -13924,7 +14228,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -14055,7 +14359,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -14970,7 +15274,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -15080,7 +15384,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -15190,7 +15494,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -15321,7 +15625,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -16236,7 +16540,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -16346,7 +16650,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -16456,7 +16760,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -16587,7 +16891,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -17502,7 +17806,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -17612,7 +17916,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -17722,7 +18026,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -17851,7 +18155,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -18731,7 +19035,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -18841,7 +19145,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -18951,7 +19255,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -19080,7 +19384,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -19960,7 +20264,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -20070,7 +20374,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -20180,7 +20484,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -20324,7 +20628,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -21204,7 +21508,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -21314,7 +21618,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -21424,7 +21728,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -21553,7 +21857,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -22433,7 +22737,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -22543,7 +22847,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -22653,7 +22957,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -22799,7 +23103,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -23714,7 +24018,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -23824,7 +24128,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -23934,7 +24238,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -24065,7 +24369,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -24980,7 +25284,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -25090,7 +25394,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -25200,7 +25504,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -25331,7 +25635,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -26246,7 +26550,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -26356,7 +26660,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -26466,7 +26770,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -26595,7 +26899,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -27475,7 +27779,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -27585,7 +27889,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -27695,7 +27999,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -27824,7 +28128,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -28704,7 +29008,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -28814,7 +29118,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -28924,7 +29228,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -29068,7 +29372,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -29924,7 +30228,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -30031,7 +30335,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -30138,7 +30442,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -30264,7 +30568,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -31120,7 +31424,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -31227,7 +31531,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -31334,7 +31638,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -31462,7 +31766,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -32000,139 +32304,139 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H6">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I6">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J6">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K6">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L6">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M6">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N6">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O6">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P6">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q6">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R6">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S6">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T6">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U6">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V6">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W6">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X6">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y6">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z6">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA6">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB6">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC6">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD6">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE6">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF6">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG6">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH6">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI6">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -32352,7 +32656,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -32459,7 +32763,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -32566,7 +32870,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -32694,7 +32998,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -33339,139 +33643,139 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H7">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I7">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J7">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K7">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L7">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M7">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N7">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O7">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P7">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q7">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R7">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S7">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T7">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U7">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V7">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W7">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X7">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y7">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z7">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA7">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB7">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC7">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD7">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE7">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF7">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG7">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH7">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI7">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -33584,7 +33888,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -33691,7 +33995,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -33798,7 +34102,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -33924,7 +34228,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -34804,7 +35108,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -34914,7 +35218,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -35024,7 +35328,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -35153,7 +35457,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -36009,7 +36313,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -36116,7 +36420,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -36223,7 +36527,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -36364,7 +36668,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -37220,7 +37524,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -37327,7 +37631,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -37434,7 +37738,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -37560,7 +37864,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -38416,7 +38720,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -38523,7 +38827,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -38630,7 +38934,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -38756,7 +39060,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -39294,139 +39598,139 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H6">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I6">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J6">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K6">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L6">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M6">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N6">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O6">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P6">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q6">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R6">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S6">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T6">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U6">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V6">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W6">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X6">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y6">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z6">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA6">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB6">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC6">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD6">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE6">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF6">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG6">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH6">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI6">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -39646,7 +39950,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -39753,7 +40057,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -39860,7 +40164,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -39986,7 +40290,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -40631,139 +40935,139 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H7">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I7">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J7">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K7">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L7">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M7">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N7">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O7">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P7">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q7">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R7">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S7">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T7">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U7">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V7">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W7">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X7">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y7">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z7">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA7">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB7">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC7">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD7">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE7">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF7">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG7">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH7">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI7">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -40876,7 +41180,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -40983,7 +41287,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -41090,7 +41394,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -41216,7 +41520,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -42072,7 +42376,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -42179,7 +42483,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -42286,7 +42590,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -42427,7 +42731,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -43283,7 +43587,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -43390,7 +43694,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -43497,7 +43801,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -43623,7 +43927,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -44479,7 +44783,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -44586,7 +44890,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -44693,7 +44997,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -44819,7 +45123,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -45699,7 +46003,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -45809,7 +46113,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -45919,7 +46223,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -46048,7 +46352,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -46586,139 +46890,139 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H6">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I6">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J6">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K6">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L6">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M6">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N6">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O6">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P6">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q6">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R6">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S6">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T6">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U6">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V6">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W6">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X6">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y6">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z6">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA6">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB6">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC6">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD6">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE6">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF6">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG6">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH6">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI6">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -46938,7 +47242,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -47045,7 +47349,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -47152,7 +47456,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -47278,7 +47582,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -47923,139 +48227,139 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H7">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I7">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J7">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K7">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L7">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M7">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N7">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O7">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P7">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q7">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R7">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S7">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T7">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U7">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V7">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W7">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X7">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y7">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z7">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA7">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB7">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC7">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD7">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE7">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF7">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG7">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH7">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI7">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -48168,7 +48472,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -48275,7 +48579,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -48382,7 +48686,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -48508,7 +48812,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -49364,7 +49668,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -49471,7 +49775,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -49578,7 +49882,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -49719,7 +50023,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -50575,7 +50879,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -50682,7 +50986,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -50789,7 +51093,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -50915,7 +51219,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -51771,7 +52075,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -51878,7 +52182,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -51985,7 +52289,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -52111,7 +52415,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -52649,139 +52953,139 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H6">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I6">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J6">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K6">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L6">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M6">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N6">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O6">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P6">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q6">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R6">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S6">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T6">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U6">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V6">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W6">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X6">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y6">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z6">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA6">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB6">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC6">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD6">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE6">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF6">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG6">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH6">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI6">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -53001,7 +53305,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -53108,7 +53412,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -53215,7 +53519,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -53341,7 +53645,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -53986,139 +54290,139 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H7">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I7">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J7">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K7">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L7">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M7">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N7">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O7">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P7">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q7">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R7">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S7">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T7">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U7">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V7">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W7">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X7">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y7">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z7">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA7">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB7">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC7">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD7">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE7">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF7">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG7">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH7">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI7">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -54231,7 +54535,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -54338,7 +54642,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -54445,7 +54749,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -54571,7 +54875,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -55427,7 +55731,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -55534,7 +55838,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -55641,7 +55945,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -55784,7 +56088,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -56699,7 +57003,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -56809,7 +57113,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -56919,7 +57223,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -57048,7 +57352,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -57904,7 +58208,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -58011,7 +58315,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -58118,7 +58422,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -58244,7 +58548,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -59100,7 +59404,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -59207,7 +59511,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -59314,7 +59618,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -59440,7 +59744,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -59978,139 +60282,139 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H6">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I6">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J6">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K6">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L6">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M6">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N6">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O6">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P6">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q6">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R6">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S6">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T6">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U6">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V6">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W6">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X6">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y6">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z6">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA6">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB6">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC6">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD6">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE6">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF6">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG6">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH6">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI6">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -60330,7 +60634,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -60437,7 +60741,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -60544,7 +60848,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -60670,7 +60974,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -61315,139 +61619,139 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H7">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I7">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J7">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K7">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L7">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M7">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N7">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O7">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P7">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q7">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R7">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S7">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T7">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U7">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V7">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W7">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X7">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y7">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z7">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA7">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB7">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC7">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD7">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE7">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF7">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG7">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH7">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI7">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -61560,7 +61864,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -61667,7 +61971,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -61774,7 +62078,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -61900,7 +62204,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -62756,7 +63060,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -62863,7 +63167,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -62970,7 +63274,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -63111,7 +63415,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -63967,7 +64271,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -64074,7 +64378,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -64181,7 +64485,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -64307,7 +64611,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -65163,7 +65467,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -65270,7 +65574,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -65377,7 +65681,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -65503,7 +65807,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -66041,139 +66345,139 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$14</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$14</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$14</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$14</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$14</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>'Max Biofuel Blends'!G$11</f>
+        <f>'Max Biofuel Blends'!G$14</f>
         <v>3.4482758620683285E-2</v>
       </c>
       <c r="H6">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$14</f>
         <v>6.896551724138078E-2</v>
       </c>
       <c r="I6">
-        <f>'Max Biofuel Blends'!I$11</f>
+        <f>'Max Biofuel Blends'!I$14</f>
         <v>0.10344827586206407</v>
       </c>
       <c r="J6">
-        <f>'Max Biofuel Blends'!J$11</f>
+        <f>'Max Biofuel Blends'!J$14</f>
         <v>0.13793103448276156</v>
       </c>
       <c r="K6">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$14</f>
         <v>0.17241379310344485</v>
       </c>
       <c r="L6">
-        <f>'Max Biofuel Blends'!L$11</f>
+        <f>'Max Biofuel Blends'!L$14</f>
         <v>0.20689655172414234</v>
       </c>
       <c r="M6">
-        <f>'Max Biofuel Blends'!M$11</f>
+        <f>'Max Biofuel Blends'!M$14</f>
         <v>0.24137931034482563</v>
       </c>
       <c r="N6">
-        <f>'Max Biofuel Blends'!N$11</f>
+        <f>'Max Biofuel Blends'!N$14</f>
         <v>0.27586206896550891</v>
       </c>
       <c r="O6">
-        <f>'Max Biofuel Blends'!O$11</f>
+        <f>'Max Biofuel Blends'!O$14</f>
         <v>0.31034482758620641</v>
       </c>
       <c r="P6">
-        <f>'Max Biofuel Blends'!P$11</f>
+        <f>'Max Biofuel Blends'!P$14</f>
         <v>0.34482758620688969</v>
       </c>
       <c r="Q6">
-        <f>'Max Biofuel Blends'!Q$11</f>
+        <f>'Max Biofuel Blends'!Q$14</f>
         <v>0.37931034482758719</v>
       </c>
       <c r="R6">
-        <f>'Max Biofuel Blends'!R$11</f>
+        <f>'Max Biofuel Blends'!R$14</f>
         <v>0.41379310344827047</v>
       </c>
       <c r="S6">
-        <f>'Max Biofuel Blends'!S$11</f>
+        <f>'Max Biofuel Blends'!S$14</f>
         <v>0.44827586206896797</v>
       </c>
       <c r="T6">
-        <f>'Max Biofuel Blends'!T$11</f>
+        <f>'Max Biofuel Blends'!T$14</f>
         <v>0.48275862068965125</v>
       </c>
       <c r="U6">
-        <f>'Max Biofuel Blends'!U$11</f>
+        <f>'Max Biofuel Blends'!U$14</f>
         <v>0.51724137931034875</v>
       </c>
       <c r="V6">
-        <f>'Max Biofuel Blends'!V$11</f>
+        <f>'Max Biofuel Blends'!V$14</f>
         <v>0.55172413793103203</v>
       </c>
       <c r="W6">
-        <f>'Max Biofuel Blends'!W$11</f>
+        <f>'Max Biofuel Blends'!W$14</f>
         <v>0.58620689655172953</v>
       </c>
       <c r="X6">
-        <f>'Max Biofuel Blends'!X$11</f>
+        <f>'Max Biofuel Blends'!X$14</f>
         <v>0.62068965517241281</v>
       </c>
       <c r="Y6">
-        <f>'Max Biofuel Blends'!Y$11</f>
+        <f>'Max Biofuel Blends'!Y$14</f>
         <v>0.6551724137930961</v>
       </c>
       <c r="Z6">
-        <f>'Max Biofuel Blends'!Z$11</f>
+        <f>'Max Biofuel Blends'!Z$14</f>
         <v>0.68965517241379359</v>
       </c>
       <c r="AA6">
-        <f>'Max Biofuel Blends'!AA$11</f>
+        <f>'Max Biofuel Blends'!AA$14</f>
         <v>0.72413793103447688</v>
       </c>
       <c r="AB6">
-        <f>'Max Biofuel Blends'!AB$11</f>
+        <f>'Max Biofuel Blends'!AB$14</f>
         <v>0.75862068965517437</v>
       </c>
       <c r="AC6">
-        <f>'Max Biofuel Blends'!AC$11</f>
+        <f>'Max Biofuel Blends'!AC$14</f>
         <v>0.79310344827585766</v>
       </c>
       <c r="AD6">
-        <f>'Max Biofuel Blends'!AD$11</f>
+        <f>'Max Biofuel Blends'!AD$14</f>
         <v>0.82758620689655515</v>
       </c>
       <c r="AE6">
-        <f>'Max Biofuel Blends'!AE$11</f>
+        <f>'Max Biofuel Blends'!AE$14</f>
         <v>0.86206896551723844</v>
       </c>
       <c r="AF6">
-        <f>'Max Biofuel Blends'!AF$11</f>
+        <f>'Max Biofuel Blends'!AF$14</f>
         <v>0.89655172413793593</v>
       </c>
       <c r="AG6">
-        <f>'Max Biofuel Blends'!AG$11</f>
+        <f>'Max Biofuel Blends'!AG$14</f>
         <v>0.93103448275861922</v>
       </c>
       <c r="AH6">
-        <f>'Max Biofuel Blends'!AH$11</f>
+        <f>'Max Biofuel Blends'!AH$14</f>
         <v>0.9655172413793025</v>
       </c>
       <c r="AI6">
-        <f>'Max Biofuel Blends'!AI$11</f>
+        <f>'Max Biofuel Blends'!AI$14</f>
         <v>1</v>
       </c>
     </row>
@@ -66393,7 +66697,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -66500,7 +66804,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -66607,7 +66911,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -66724,7 +67028,9 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AI7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -66733,7 +67039,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -67378,140 +67684,140 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <f>'Max Biofuel Blends'!B$11</f>
+        <f>'Max Biofuel Blends'!B$17</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>'Max Biofuel Blends'!C$11</f>
+        <f>'Max Biofuel Blends'!C$17</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>'Max Biofuel Blends'!D$11</f>
+        <f>'Max Biofuel Blends'!D$17</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>'Max Biofuel Blends'!E$11</f>
+        <f>'Max Biofuel Blends'!E$17</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>'Max Biofuel Blends'!F$11</f>
+        <f>'Max Biofuel Blends'!F$17</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>'Max Biofuel Blends'!G$11</f>
-        <v>3.4482758620683285E-2</v>
+        <f>'Max Biofuel Blends'!G$17</f>
+        <v>1.7241379310341642E-2</v>
       </c>
       <c r="H7">
-        <f>'Max Biofuel Blends'!H$11</f>
+        <f>'Max Biofuel Blends'!H$17</f>
+        <v>3.448275862069039E-2</v>
+      </c>
+      <c r="I7">
+        <f>'Max Biofuel Blends'!I$17</f>
+        <v>5.1724137931032033E-2</v>
+      </c>
+      <c r="J7">
+        <f>'Max Biofuel Blends'!J$17</f>
         <v>6.896551724138078E-2</v>
       </c>
-      <c r="I7">
-        <f>'Max Biofuel Blends'!I$11</f>
-        <v>0.10344827586206407</v>
-      </c>
-      <c r="J7">
-        <f>'Max Biofuel Blends'!J$11</f>
-        <v>0.13793103448276156</v>
-      </c>
       <c r="K7">
-        <f>'Max Biofuel Blends'!K$11</f>
+        <f>'Max Biofuel Blends'!K$17</f>
+        <v>8.6206896551722423E-2</v>
+      </c>
+      <c r="L7">
+        <f>'Max Biofuel Blends'!L$17</f>
+        <v>0.10344827586207117</v>
+      </c>
+      <c r="M7">
+        <f>'Max Biofuel Blends'!M$17</f>
+        <v>0.12068965517241281</v>
+      </c>
+      <c r="N7">
+        <f>'Max Biofuel Blends'!N$17</f>
+        <v>0.13793103448275446</v>
+      </c>
+      <c r="O7">
+        <f>'Max Biofuel Blends'!O$17</f>
+        <v>0.1551724137931032</v>
+      </c>
+      <c r="P7">
+        <f>'Max Biofuel Blends'!P$17</f>
         <v>0.17241379310344485</v>
       </c>
-      <c r="L7">
-        <f>'Max Biofuel Blends'!L$11</f>
-        <v>0.20689655172414234</v>
-      </c>
-      <c r="M7">
-        <f>'Max Biofuel Blends'!M$11</f>
+      <c r="Q7">
+        <f>'Max Biofuel Blends'!Q$17</f>
+        <v>0.18965517241379359</v>
+      </c>
+      <c r="R7">
+        <f>'Max Biofuel Blends'!R$17</f>
+        <v>0.20689655172413524</v>
+      </c>
+      <c r="S7">
+        <f>'Max Biofuel Blends'!S$17</f>
+        <v>0.22413793103448398</v>
+      </c>
+      <c r="T7">
+        <f>'Max Biofuel Blends'!T$17</f>
         <v>0.24137931034482563</v>
       </c>
-      <c r="N7">
-        <f>'Max Biofuel Blends'!N$11</f>
-        <v>0.27586206896550891</v>
-      </c>
-      <c r="O7">
-        <f>'Max Biofuel Blends'!O$11</f>
+      <c r="U7">
+        <f>'Max Biofuel Blends'!U$17</f>
+        <v>0.25862068965517437</v>
+      </c>
+      <c r="V7">
+        <f>'Max Biofuel Blends'!V$17</f>
+        <v>0.27586206896551602</v>
+      </c>
+      <c r="W7">
+        <f>'Max Biofuel Blends'!W$17</f>
+        <v>0.29310344827586476</v>
+      </c>
+      <c r="X7">
+        <f>'Max Biofuel Blends'!X$17</f>
         <v>0.31034482758620641</v>
       </c>
-      <c r="P7">
-        <f>'Max Biofuel Blends'!P$11</f>
-        <v>0.34482758620688969</v>
-      </c>
-      <c r="Q7">
-        <f>'Max Biofuel Blends'!Q$11</f>
+      <c r="Y7">
+        <f>'Max Biofuel Blends'!Y$17</f>
+        <v>0.32758620689654805</v>
+      </c>
+      <c r="Z7">
+        <f>'Max Biofuel Blends'!Z$17</f>
+        <v>0.3448275862068968</v>
+      </c>
+      <c r="AA7">
+        <f>'Max Biofuel Blends'!AA$17</f>
+        <v>0.36206896551723844</v>
+      </c>
+      <c r="AB7">
+        <f>'Max Biofuel Blends'!AB$17</f>
         <v>0.37931034482758719</v>
       </c>
-      <c r="R7">
-        <f>'Max Biofuel Blends'!R$11</f>
-        <v>0.41379310344827047</v>
-      </c>
-      <c r="S7">
-        <f>'Max Biofuel Blends'!S$11</f>
+      <c r="AC7">
+        <f>'Max Biofuel Blends'!AC$17</f>
+        <v>0.39655172413792883</v>
+      </c>
+      <c r="AD7">
+        <f>'Max Biofuel Blends'!AD$17</f>
+        <v>0.41379310344827758</v>
+      </c>
+      <c r="AE7">
+        <f>'Max Biofuel Blends'!AE$17</f>
+        <v>0.43103448275861922</v>
+      </c>
+      <c r="AF7">
+        <f>'Max Biofuel Blends'!AF$17</f>
         <v>0.44827586206896797</v>
       </c>
-      <c r="T7">
-        <f>'Max Biofuel Blends'!T$11</f>
+      <c r="AG7">
+        <f>'Max Biofuel Blends'!AG$17</f>
+        <v>0.46551724137930961</v>
+      </c>
+      <c r="AH7">
+        <f>'Max Biofuel Blends'!AH$17</f>
         <v>0.48275862068965125</v>
       </c>
-      <c r="U7">
-        <f>'Max Biofuel Blends'!U$11</f>
-        <v>0.51724137931034875</v>
-      </c>
-      <c r="V7">
-        <f>'Max Biofuel Blends'!V$11</f>
-        <v>0.55172413793103203</v>
-      </c>
-      <c r="W7">
-        <f>'Max Biofuel Blends'!W$11</f>
-        <v>0.58620689655172953</v>
-      </c>
-      <c r="X7">
-        <f>'Max Biofuel Blends'!X$11</f>
-        <v>0.62068965517241281</v>
-      </c>
-      <c r="Y7">
-        <f>'Max Biofuel Blends'!Y$11</f>
-        <v>0.6551724137930961</v>
-      </c>
-      <c r="Z7">
-        <f>'Max Biofuel Blends'!Z$11</f>
-        <v>0.68965517241379359</v>
-      </c>
-      <c r="AA7">
-        <f>'Max Biofuel Blends'!AA$11</f>
-        <v>0.72413793103447688</v>
-      </c>
-      <c r="AB7">
-        <f>'Max Biofuel Blends'!AB$11</f>
-        <v>0.75862068965517437</v>
-      </c>
-      <c r="AC7">
-        <f>'Max Biofuel Blends'!AC$11</f>
-        <v>0.79310344827585766</v>
-      </c>
-      <c r="AD7">
-        <f>'Max Biofuel Blends'!AD$11</f>
-        <v>0.82758620689655515</v>
-      </c>
-      <c r="AE7">
-        <f>'Max Biofuel Blends'!AE$11</f>
-        <v>0.86206896551723844</v>
-      </c>
-      <c r="AF7">
-        <f>'Max Biofuel Blends'!AF$11</f>
-        <v>0.89655172413793593</v>
-      </c>
-      <c r="AG7">
-        <f>'Max Biofuel Blends'!AG$11</f>
-        <v>0.93103448275861922</v>
-      </c>
-      <c r="AH7">
-        <f>'Max Biofuel Blends'!AH$11</f>
-        <v>0.9655172413793025</v>
-      </c>
       <c r="AI7">
-        <f>'Max Biofuel Blends'!AI$11</f>
-        <v>1</v>
+        <f>'Max Biofuel Blends'!AI$17</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
@@ -67623,7 +67929,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0.64251101185250481</v>
@@ -67730,7 +68036,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -67837,7 +68143,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -67965,7 +68271,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -68845,7 +69151,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -68955,7 +69261,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -69065,7 +69371,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -69194,7 +69500,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1">
         <v>2017</v>
@@ -70050,7 +70356,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -70157,7 +70463,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -70264,7 +70570,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -70405,7 +70711,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -71285,7 +71591,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -71395,7 +71701,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -71505,7 +71811,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -71634,7 +71940,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -72514,7 +72820,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -72624,7 +72930,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -72734,7 +73040,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -72865,7 +73171,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -73745,7 +74051,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -73855,7 +74161,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -73965,7 +74271,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -74096,7 +74402,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -74976,7 +75282,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -75086,7 +75392,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -75196,7 +75502,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -75327,7 +75633,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -76207,7 +76513,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -76317,7 +76623,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -76427,7 +76733,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -76556,7 +76862,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -77436,7 +77742,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -77546,7 +77852,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -77656,7 +77962,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -77785,7 +78091,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -78665,7 +78971,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -78775,7 +79081,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -78885,7 +79191,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -79031,7 +79337,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -79946,7 +80252,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -80056,7 +80362,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -80166,7 +80472,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -80298,7 +80604,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -81178,7 +81484,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -81288,7 +81594,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -81398,7 +81704,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -81527,7 +81833,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -82407,7 +82713,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -82517,7 +82823,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -82627,7 +82933,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -82758,7 +83064,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -83673,7 +83979,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -83783,7 +84089,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -83893,7 +84199,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -84024,7 +84330,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -84939,7 +85245,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -85049,7 +85355,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -85159,7 +85465,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -85290,7 +85596,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -86205,7 +86511,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -86315,7 +86621,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -86425,7 +86731,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -86554,7 +86860,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -87434,7 +87740,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -87544,7 +87850,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -87654,7 +87960,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -87783,7 +88089,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -88663,7 +88969,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -88773,7 +89079,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -88883,7 +89189,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -89012,7 +89318,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -89892,7 +90198,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -90002,7 +90308,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -90112,7 +90418,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0</v>
